--- a/individual_case_outputs/avey/403.xlsx
+++ b/individual_case_outputs/avey/403.xlsx
@@ -613,7 +613,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sepsis</t>
+          <t>coronavirus disease 2019</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -624,7 +624,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>sepsis</t>
+          <t>influenza</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>sepsis</t>
+          <t>bone infection</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -738,7 +738,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>sepsis</t>
+          <t>hiv infection</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -751,7 +751,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>sepsis</t>
+          <t>bacterial pneumonia</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
